--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr2_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr2_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="16.24609375" customWidth="true"/>
-    <col min="4" max="4" width="16.24609375" customWidth="true"/>
+    <col min="3" max="3" width="15.24609375" customWidth="true"/>
+    <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="16.24609375" customWidth="true"/>
-    <col min="8" max="8" width="15.77734375" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29394228259871075</v>
+        <v>0.28723085579691687</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29406241041534981</v>
+        <v>0.28717224311352674</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>8.9612699769094905e-05</v>
+        <v>-0.0043380716724955104</v>
       </c>
       <c r="E3" s="0">
-        <v>6.9033821809790779e-05</v>
+        <v>-0.00012170815925631099</v>
       </c>
       <c r="F3" s="0">
-        <v>0.00042396782346018174</v>
+        <v>-0.00030322665726919895</v>
       </c>
       <c r="G3" s="0">
-        <v>-1.607316916686883e-05</v>
+        <v>-0.00022480573698484629</v>
       </c>
       <c r="H3" s="0">
-        <v>1.374422148026491e-05</v>
+        <v>3.0629196299058471e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-5.203064871890088e-06</v>
+        <v>-3.1496924317891369e-05</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-5.4490236117699098e-07</v>
+        <v>-9.9178986061598806e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29343549358472365</v>
+        <v>0.31748000468428617</v>
       </c>
       <c r="C4" s="0">
-        <v>0.00051365531062623861</v>
+        <v>0.0093733009916151348</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-2.3795256550462978e-06</v>
+        <v>-5.7684839194588425e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>-1.568946080676018e-05</v>
+        <v>-3.2341189503046752e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-2.3566203426540008e-06</v>
+        <v>0.00016876620806714426</v>
       </c>
       <c r="I4" s="0">
-        <v>-2.2763450953585385e-05</v>
+        <v>-0.00030366227655178831</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00039897155820547476</v>
+        <v>0.0033775588211386147</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00016108836642902968</v>
+        <v>-0.00035026773660018495</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29287805787939958</v>
+        <v>0.31332357928695737</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.00042169381428705147</v>
+        <v>-0.0025259391811009485</v>
       </c>
       <c r="E5" s="0">
-        <v>-3.9895914556509649e-05</v>
+        <v>-0.0010894100653848912</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00026237017932629643</v>
+        <v>0.0012609412849485244</v>
       </c>
       <c r="G5" s="0">
-        <v>-1.4146968656408485e-05</v>
+        <v>-0.00015230907173696416</v>
       </c>
       <c r="H5" s="0">
-        <v>5.0758810818512913e-06</v>
+        <v>0.0001612276318160899</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00013509943682642883</v>
+        <v>-7.1330511179581503e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00035505593865631235</v>
+        <v>-0.0023803464338746916</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.29310315516906271</v>
+        <v>0.32463004771321996</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.00098194124730815882</v>
+        <v>-0.0037266837910284265</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1.1330985003211793e-07</v>
+        <v>4.8026533863828129e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-5.1604085938809362e-05</v>
+        <v>0.00018097628317083545</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-1.2693046146860864e-05</v>
+        <v>6.7147817508145434e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.00023225623877249336</v>
+        <v>-0.001196658119618477</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.00070590517924579155</v>
+        <v>-2.2454252208703451e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29349052392681091</v>
+        <v>0.33381936006433249</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.00033024447947785753</v>
+        <v>-0.0036526032019088294</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00032111874641649357</v>
+        <v>-5.5430897391017991e-05</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00010426318742434459</v>
+        <v>0.0010414351803987134</v>
       </c>
       <c r="G7" s="0">
-        <v>2.9368582781147959e-05</v>
+        <v>0.003212223445164026</v>
       </c>
       <c r="H7" s="0">
-        <v>1.130481483727567e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-4.9894651293719762e-05</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.00032771446296903095</v>
+        <v>-0.00056866540877442695</v>
       </c>
     </row>
     <row r="8">
